--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504826.511754914</v>
+        <v>2502938.930238512</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>131.101966684368</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>42.98425264020207</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>98.09203546875456</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>155.8311773578304</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>48.97699675700473</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>349.6883224694399</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938887</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>129.0246247964038</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896922</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941333</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.1185891390122</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>39.11561436815785</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>47.05280436547413</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>26.97444673954853</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>118.2422920270587</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.5269768002171</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>163.9563538534655</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.84207451769362</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.042680388414926</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>54.76109577523571</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>111.8765232158141</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337368</v>
+        <v>98.36167833373635</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2333.516684888777</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2079.754899526868</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1748.692012183297</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.923356913183</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1022.457598652103</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1290.918127343476</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1290.918127343476</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>905.1298747452313</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>898.1843739960278</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>480.2205658942147</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>153.0258459302175</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.537684208512</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.474796864941</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.706141594827</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.240383333747</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.240383333747</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2056.787465592192</v>
+        <v>983.0286321745432</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.387305656314</v>
+        <v>983.0286321745432</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4969,40 +4969,40 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036446</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141297</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P12" t="n">
-        <v>2520.760934363149</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.9805482336712</v>
+        <v>192.3330639344408</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344408</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344408</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247868</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038345</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324582</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>420.3226148324582</v>
       </c>
       <c r="X13" t="n">
-        <v>241.9805482336712</v>
+        <v>192.3330639344408</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.9805482336712</v>
+        <v>192.3330639344408</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395582</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X16" t="n">
-        <v>496.6650364395582</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y16" t="n">
-        <v>496.6650364395582</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,34 +5525,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138935</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C19" t="n">
-        <v>507.0827848727881</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727881</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273993</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904388</v>
+        <v>727.6476863320732</v>
       </c>
       <c r="X19" t="n">
-        <v>554.6108700904388</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.6108700904388</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834692</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,25 +5990,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6145,10 +6145,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U25" t="n">
-        <v>986.002216560966</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550791</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181185</v>
+        <v>843.9666117966295</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201012</v>
+        <v>615.9770608986121</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201012</v>
+        <v>615.9770608986121</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,31 +6212,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,7 +6248,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>195.0373687508855</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765184</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706315</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336709</v>
+        <v>643.8194987924329</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>195.0373687508855</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.3668169895376</v>
+        <v>491.5575547094952</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430015</v>
+        <v>378.3822370629591</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430015</v>
+        <v>284.0264629319941</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652472</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503088</v>
+        <v>617.4451542583641</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6835,16 +6835,16 @@
         <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010312</v>
@@ -6914,19 +6914,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,43 +7394,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7731,22 +7731,22 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>745.6707680030239</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7816,40 +7816,40 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>165.9802687929746</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.83804904622824</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>94.13752431970516</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.23759968302028</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622804</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>369.0893880493729</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943582</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.43196988338462</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470642</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949857</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>272.8719470256806</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>23.93099889297639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715584</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.71339104292505</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>120.1940167331537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>259.2629056590288</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3423613250361</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.30500338172017</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.59120720492376</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>70.40474658093422</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.5860431649652</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>51.50487350772367</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="10">
@@ -26314,22 +26314,22 @@
         <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="G2" t="n">
         <v>566992.1366196777</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="H2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="I2" t="n">
         <v>566992.1366196777</v>
@@ -26338,10 +26338,10 @@
         <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506415</v>
+        <v>589892.0991506417</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="M2" t="n">
         <v>595255.2831516048</v>
@@ -26353,7 +26353,7 @@
         <v>595255.2831516048</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.9068008667</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775719</v>
+        <v>-234346.6323775717</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.246836973</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369726</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737399</v>
+        <v>-65298.35455334649</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.141049522</v>
+        <v>459861.6819235503</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.1410495223</v>
+        <v>459861.6819235498</v>
       </c>
       <c r="H6" t="n">
-        <v>459959.141049522</v>
+        <v>459861.6819235497</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.141049522</v>
+        <v>459861.6819235498</v>
       </c>
       <c r="J6" t="n">
-        <v>283535.921856929</v>
+        <v>283438.4627309569</v>
       </c>
       <c r="K6" t="n">
-        <v>415890.9931819373</v>
+        <v>415872.4994440033</v>
       </c>
       <c r="L6" t="n">
-        <v>449732.8136679529</v>
+        <v>449732.8136679532</v>
       </c>
       <c r="M6" t="n">
-        <v>325274.7052349827</v>
+        <v>325274.7052349825</v>
       </c>
       <c r="N6" t="n">
-        <v>460075.7204688197</v>
+        <v>460075.7204688198</v>
       </c>
       <c r="O6" t="n">
-        <v>460075.7204688198</v>
+        <v>460075.7204688199</v>
       </c>
       <c r="P6" t="n">
-        <v>415913.1151659742</v>
+        <v>415913.1151659744</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>85.34635367328977</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>105.6312203780103</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>53.83928077610669</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>95.39299015045893</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>118.3328055020462</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067481</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>15.58456930156763</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082689</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.68503059263338</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.250924017556841e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.250924017556841e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>499.1748421909878</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.8510818313024</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>427.3320977177181</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35814,7 +35814,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709596</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36051,7 +36051,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341673</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053973</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599022</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>358.7956721244929</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321383</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>674.4750642637517</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045727</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,7 +37868,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37877,7 +37877,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38099,25 +38099,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>336.4270607962786</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>555.2356492667888</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
